--- a/sft_vim/正規表現まとめ.xlsx
+++ b/sft_vim/正規表現まとめ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
   <si>
     <t>繰返し(0回以上)</t>
     <rPh sb="0" eb="1">
@@ -28,16 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Vim</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>繰返し制御系（量指定子）</t>
-  </si>
-  <si>
-    <t>a* は0回以上の a の繰り返しにマッチする。（最長一致）</t>
-  </si>
-  <si>
     <t>a+ は単に a+ という文字列にマッチする。</t>
   </si>
   <si>
@@ -47,15 +37,9 @@
     <t>a\{-n,m} 系（a\{n,m} と基本同じだがブレス内の頭に - をつけることで最短一致になる）</t>
   </si>
   <si>
-    <t>a\{-n} は丁度 n 回の a の繰り返しにマッチする。（-のアリナシで意味に違いはない）</t>
-  </si>
-  <si>
     <t>a\{-n,} は n 回以上の a の繰り返しにマッチする。（最短マッチ、『pregのa{n,}?と同じ』））</t>
   </si>
   <si>
-    <t>a\{-n,m} は n 回以上 m 回以下の a の繰り返しにマッチする。（最短マッチ、『pregのa{n,m}?と同じ』）</t>
-  </si>
-  <si>
     <t>a\{-,m} は 0 回以上 m 回以下の a の繰り返しにマッチする。（最短マッチ、『pregのa{,m}?と同じ』）</t>
   </si>
   <si>
@@ -108,9 +92,6 @@
   </si>
   <si>
     <t>\u は [A-Z] と同じ。（英字の大文字）</t>
-  </si>
-  <si>
-    <t>\S, \D, \X, \O, \W, \H, \A, \L, \U はそれぞれ、改行以外の文字、数字以外の文字、…にマッチする。</t>
   </si>
   <si>
     <t>\_. は改行を含むすべての文字にマッチする。（Perlのs修飾子を付けた状態みたいな感じ）</t>
@@ -545,101 +526,121 @@
     <t>[A-Z]（英大文字）</t>
   </si>
   <si>
-    <t>(※1)繰り返し系は前に-を付けると最短マッチになる</t>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サイタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a*(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\+(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\?(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\=(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\{n}(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\{n,}(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\{n,m}(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\{,m}(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a\{,}(※1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\s(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\d(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\x(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\o(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\w(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\h(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\a(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\l(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\u(※2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(※2)アルファベット部を大文字にすると、それ以外</t>
+    <t>\_+↑で改行を含む文字にマッチする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(foo|bar)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列「(foo|bar)」</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰返し制御系（量指定子）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a\{-n} は丁度 n 回の a の繰り返しにマッチする。（-のアリナシで意味に違いはない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a\{-n,m} は n 回以上 m 回以下の a の繰り返しにマッチする。（最短マッチ、『pregのa{n,m}?と同じ』）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a*</t>
+  </si>
+  <si>
+    <t>a\+</t>
+  </si>
+  <si>
+    <t>a\?</t>
+  </si>
+  <si>
+    <t>a\=</t>
+  </si>
+  <si>
+    <t>a\{n}</t>
+  </si>
+  <si>
+    <t>a\{n,}</t>
+  </si>
+  <si>
+    <t>a\{n,m}</t>
+  </si>
+  <si>
+    <t>a\{,m}</t>
+  </si>
+  <si>
+    <t>a\{,}</t>
+  </si>
+  <si>
+    <t>(※2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>\x</t>
+  </si>
+  <si>
+    <t>\o</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>\h</t>
+  </si>
+  <si>
+    <t>\a</t>
+  </si>
+  <si>
+    <t>\l</t>
+  </si>
+  <si>
+    <t>\u</t>
+  </si>
+  <si>
+    <t>(※1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\S, \D, \X, \O, \W, \H, \A, \L, \U はそれぞれ、改行以外の文字、数字以外の文字、…にマッチする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(※2)アルファベット部を大文字にすると、それ以外（ex.\Dは数字以外の文字）</t>
     <rPh sb="11" eb="12">
       <t>ブ</t>
     </rPh>
@@ -649,10 +650,57 @@
     <rPh sb="23" eb="25">
       <t>イガイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\_+↑で改行を含む文字にマッチする。</t>
+    <rPh sb="32" eb="34">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a* は0回以上の a の繰り返しにマッチする。（最長一致）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(※1)最長マッチの例。前に-を付けると最短マッチになる(ex. a\{-n,m})</t>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列「a+」</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列「a?」</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,12 +731,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -703,9 +757,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1007,733 +1062,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J111"/>
+  <dimension ref="B3:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="40.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J3" s="1" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="1" t="s">
+      <c r="K33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J19" s="1" t="s">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="1" t="s">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J21" s="1" t="s">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" s="1" t="s">
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J42" s="1" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" s="1" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J44" s="1" t="s">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J45" s="1" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="1" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J48" s="1" t="s">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="1" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="1" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="1" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J52" s="1" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J53" s="1" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J54" s="1" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J55" s="1" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J56" s="1" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J57" s="1" t="s">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J58" s="1" t="s">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="1" t="s">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="1" t="s">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J62" s="1" t="s">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J63" s="1" t="s">
+    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J64" s="1" t="s">
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J65" s="1" t="s">
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J66" s="1" t="s">
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J67" s="1" t="s">
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J68" s="1" t="s">
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J69" s="1" t="s">
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J70" s="1" t="s">
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J71" s="1" t="s">
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J72" s="1" t="s">
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J73" s="1" t="s">
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J74" s="1" t="s">
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J75" s="1" t="s">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J76" s="1" t="s">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J77" s="1" t="s">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J78" s="1" t="s">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J79" s="1" t="s">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J80" s="1" t="s">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J81" s="1" t="s">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J82" s="1" t="s">
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J83" s="1" t="s">
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J84" s="1" t="s">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J86" s="1" t="s">
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="1" t="s">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="1" t="s">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J89" s="1" t="s">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J90" s="1" t="s">
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J91" s="1" t="s">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J92" s="1" t="s">
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J93" s="1" t="s">
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J94" s="1" t="s">
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J95" s="1" t="s">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J96" s="1" t="s">
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J97" s="1" t="s">
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J98" s="1" t="s">
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J100" s="1" t="s">
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J101" s="1" t="s">
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J102" s="1" t="s">
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J103" s="1" t="s">
+    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K110" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J104" s="1" t="s">
+    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K111" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J105" s="1" t="s">
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J106" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J107" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J108" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J109" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J110" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J111" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/sft_vim/正規表現まとめ.xlsx
+++ b/sft_vim/正規表現まとめ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17214F-FE18-4600-AED1-12CA68D9A774}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -707,7 +708,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -771,12 +772,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,9 +855,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,6 +907,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,10 +1099,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1877,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1890,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sft_vim/正規表現まとめ.xlsx
+++ b/sft_vim/正規表現まとめ.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17214F-FE18-4600-AED1-12CA68D9A774}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C4DE36-816A-442D-A9F6-AAC3AFCFC96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="251">
   <si>
     <t>繰返し(0回以上)</t>
     <rPh sb="0" eb="1">
@@ -703,6 +711,264 @@
   <si>
     <t>a?</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\v</t>
+  </si>
+  <si>
+    <t>\V</t>
+  </si>
+  <si>
+    <t>\m</t>
+  </si>
+  <si>
+    <t>\M</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>\$</t>
+  </si>
+  <si>
+    <t>matches end-of-line</t>
+  </si>
+  <si>
+    <t>\.</t>
+  </si>
+  <si>
+    <t>matches any character</t>
+  </si>
+  <si>
+    <t>\*</t>
+  </si>
+  <si>
+    <t>any number of the previous atom</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>\(\)</t>
+  </si>
+  <si>
+    <t>grouping into an atom</t>
+  </si>
+  <si>
+    <t>\|</t>
+  </si>
+  <si>
+    <t>separating alternatives</t>
+  </si>
+  <si>
+    <t>alphabetic character</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>literal dot</t>
+  </si>
+  <si>
+    <t>\{</t>
+  </si>
+  <si>
+    <t>literal '{'</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>literal 'a'</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0か1回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>｛1,2｝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リテラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[a-z]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0か1回(最長一致)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>very magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nomagic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>very nomagic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以降の、'0'-'9'、'a'-'z'、'A'-'Z'、'_'、以外のすべての
+ASCII 文字は特別な意味を持ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以降はバックスラッシュと終端文字 (/ や ?) だけが特別な意味
+を持ちます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンの中でリテラルとして扱われる文字は、テキストの同じ文字とマッチします。
+しかし、バックスラッシュが前置されると、特別な意味を持つようになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語の先頭の文字</t>
   </si>
 </sst>
 </file>
@@ -732,7 +998,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +1008,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,10 +1030,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1102,24 +1382,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="40.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
@@ -1130,7 +1410,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1424,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
@@ -1158,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1172,7 +1452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1186,7 +1466,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
@@ -1200,7 +1480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
@@ -1214,7 +1494,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1228,7 +1508,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>98</v>
       </c>
@@ -1242,7 +1522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>99</v>
       </c>
@@ -1256,12 +1536,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>172</v>
       </c>
@@ -1269,42 +1549,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K17" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>173</v>
       </c>
@@ -1315,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
@@ -1326,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>142</v>
       </c>
@@ -1345,7 +1625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
@@ -1356,7 +1636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
@@ -1367,7 +1647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
@@ -1378,7 +1658,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C30" s="1" t="s">
         <v>122</v>
       </c>
@@ -1389,7 +1669,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
         <v>125</v>
       </c>
@@ -1400,7 +1680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
@@ -1411,7 +1691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
@@ -1425,7 +1705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
@@ -1439,7 +1719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>133</v>
       </c>
@@ -1453,7 +1733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>134</v>
       </c>
@@ -1467,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C37" s="1" t="s">
         <v>135</v>
       </c>
@@ -1481,7 +1761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
@@ -1495,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C39" s="1" t="s">
         <v>137</v>
       </c>
@@ -1509,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C40" s="1" t="s">
         <v>138</v>
       </c>
@@ -1523,7 +1803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>139</v>
       </c>
@@ -1537,12 +1817,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K42" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>110</v>
       </c>
@@ -1553,7 +1833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C44" s="1" t="s">
         <v>112</v>
       </c>
@@ -1564,7 +1844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
@@ -1575,7 +1855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
@@ -1586,7 +1866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
@@ -1597,17 +1877,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K48" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>170</v>
       </c>
@@ -1615,297 +1895,297 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K51" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K53" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K54" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K58" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K59" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K60" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K62" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K63" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K64" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K65" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K66" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K67" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K68" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K69" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K70" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K71" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K72" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K73" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K74" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K75" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K76" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K77" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K78" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K80" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K81" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K82" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K83" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K84" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K85" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K87" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K88" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K89" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K90" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K91" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K92" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K93" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K94" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K95" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K96" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K97" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K98" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K99" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K101" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K102" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K103" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K104" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K105" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K106" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K107" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K108" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K109" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K110" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K111" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K112" s="1" t="s">
         <v>83</v>
       </c>
@@ -1918,14 +2198,437 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="J5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="C6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>215</v>
+      </c>
+      <c r="N8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" t="s">
+        <v>222</v>
+      </c>
+      <c r="O11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" t="s">
+        <v>225</v>
+      </c>
+      <c r="M13" t="s">
+        <v>225</v>
+      </c>
+      <c r="N13" t="s">
+        <v>225</v>
+      </c>
+      <c r="O13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>237</v>
+      </c>
+      <c r="O20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1935,7 +2638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
